--- a/NUnitAutomationTestingProgram/SampleTests/Excel/TestNoURL.xlsx
+++ b/NUnitAutomationTestingProgram/SampleTests/Excel/TestNoURL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DuongCh\Projects\SeleniumFramework\NUnitAutomationTestingProgram\SampleTests\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C82F17-677F-47A5-BE6B-B45BB8ADF12E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E1752D-E503-4F60-8650-90444E664A45}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{8D1508E1-AE38-4628-9F19-71503E8C0CED}"/>
   </bookViews>
@@ -48,7 +48,7 @@
     <t>ClickElementByXPath</t>
   </si>
   <si>
-    <t>//a[contains(text(),'Form Authentication')]</t>
+    <t>//a[contains(text(),'Form Authentication')]</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
